--- a/data/Subset1_WithDialogActs/TRACY LEWIS pt 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/TRACY LEWIS pt 1.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1163,12 +1163,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1205,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1669,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2057,12 +2057,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2859,12 +2859,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3703,12 +3703,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3855,12 +3855,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4125,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4433,12 +4433,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4471,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4547,12 +4547,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4855,12 +4855,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5315,12 +5315,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5661,12 +5661,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
